--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2671959.29903465</v>
+        <v>2669665.703578056</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283177</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9019281.971365958</v>
+        <v>9019281.971365957</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>208.2474868886328</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>87.99748334856798</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>23.94563726208596</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>185.2705165323378</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>133.6650819731286</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>129.5398680316074</v>
       </c>
     </row>
     <row r="6">
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>134.631133566647</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>217.0914199928484</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>186.8460807091497</v>
       </c>
       <c r="U8" t="n">
-        <v>28.01314796823009</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,19 +1370,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710059</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176103</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>130.5513683573759</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703366</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428256</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.0585636675447</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>177.100668059488</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>147.6895341487373</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060098</v>
       </c>
     </row>
     <row r="29">
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444152</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>81.54417886827426</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>32.84316668127778</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722639</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135851</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>168.4805514670958</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1785.600156360222</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="C2" t="n">
-        <v>1416.63763941981</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D2" t="n">
-        <v>1058.37194081306</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>672.5836882148155</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>261.597783425208</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="Y2" t="n">
-        <v>2172.199996424344</v>
+        <v>1202.59552936621</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>343.626060018204</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>638.3296170496758</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>981.8280128167645</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C4" t="n">
-        <v>812.8918298888576</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765219</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941287</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W4" t="n">
-        <v>1612.258607688552</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="X4" t="n">
-        <v>1384.269056790534</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="Y4" t="n">
-        <v>1163.476477647004</v>
+        <v>383.0118908105785</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2065.110222835253</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1696.147705894841</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1337.882007288091</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>952.0937546898465</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>541.107849900239</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,31 +4562,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2841.849394875187</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>2451.710062899375</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4638,19 +4638,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.4780323548192</v>
+        <v>669.4690763615333</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269123</v>
+        <v>500.5328934336264</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>350.4162540212907</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1708.010285469454</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>1453.325797263567</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W7" t="n">
-        <v>1163.908627226606</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="X7" t="n">
-        <v>935.9190763285891</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="Y7" t="n">
-        <v>715.126497185059</v>
+        <v>851.1175411917731</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3026.581738278539</v>
       </c>
       <c r="U8" t="n">
-        <v>3091.331964934574</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="V8" t="n">
-        <v>3091.331964934574</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W8" t="n">
-        <v>3091.331964934574</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
-        <v>2717.866206673495</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.726874697683</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,49 +5042,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191922</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349506</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061502</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.043492616109</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459573</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180504</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>449.4852666057146</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="E13" t="n">
-        <v>449.4852666057146</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="F13" t="n">
-        <v>449.4852666057146</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854705</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817744</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919727</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.186553776197</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400812</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121743</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121743</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121743</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121743</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853371</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358027</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832673</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487577</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510518</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854716</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648829</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611868</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138511</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.502065570321</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,40 +5504,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111704</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>691.195150674524</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468418</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5744,55 +5744,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516145</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2018.172981791115</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,37 +6002,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438167</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362701</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890283</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.11872044489</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684177</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1895.093223067808</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1640.408734861921</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1350.99156482496</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,31 +6716,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438167</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803939</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516146</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167374</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793926</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348533</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,28 +7169,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192603</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7260,19 +7260,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>691.195150674524</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516145</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438167</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>45.76488231024513</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-3.450655634541677e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>34.97276993489291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.76050189075474</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392193229</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219413</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108313</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24178,16 +24178,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>40.30478226780022</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814938</v>
       </c>
     </row>
     <row r="29">
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>204.6402955209699</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>57.22910392194134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775938.4291806909</v>
+        <v>775938.4291806907</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775938.4291806908</v>
+        <v>775938.4291806907</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775938.4291806907</v>
+        <v>775938.4291806906</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="I2" t="n">
         <v>645717.279752005</v>
@@ -26338,22 +26338,22 @@
         <v>645717.2797520052</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.279752005</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121061</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>7.346245638473192e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605457</v>
+        <v>49110.09270605448</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26418,40 +26418,40 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
+        <v>89134.1790931202</v>
+      </c>
+      <c r="D4" t="n">
         <v>89134.17909312015</v>
       </c>
-      <c r="D4" t="n">
-        <v>89134.17909312018</v>
-      </c>
       <c r="E4" t="n">
-        <v>9947.144321768988</v>
+        <v>9947.14432176885</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321769014</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768817</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768872</v>
+        <v>9947.14432176889</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768923</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768859</v>
+        <v>9947.144321768912</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768832</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768879</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768803</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.14432176891</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26494,13 +26494,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-688786.550531559</v>
+        <v>-688786.5505315592</v>
       </c>
       <c r="C6" t="n">
-        <v>256326.5546248072</v>
+        <v>256326.5546248071</v>
       </c>
       <c r="D6" t="n">
-        <v>459765.296236913</v>
+        <v>459765.2962369132</v>
       </c>
       <c r="E6" t="n">
-        <v>209235.1437989741</v>
+        <v>209200.4058735379</v>
       </c>
       <c r="F6" t="n">
-        <v>534647.6056063282</v>
+        <v>534612.8676808936</v>
       </c>
       <c r="G6" t="n">
-        <v>534647.6056063288</v>
+        <v>534612.8676808932</v>
       </c>
       <c r="H6" t="n">
-        <v>534647.605606329</v>
+        <v>534612.8676808932</v>
       </c>
       <c r="I6" t="n">
-        <v>534647.6056063289</v>
+        <v>534612.8676808934</v>
       </c>
       <c r="J6" t="n">
-        <v>367042.4277963467</v>
+        <v>367007.689870911</v>
       </c>
       <c r="K6" t="n">
-        <v>485537.5129002744</v>
+        <v>485502.7749748388</v>
       </c>
       <c r="L6" t="n">
-        <v>534647.6056063293</v>
+        <v>534612.8676808934</v>
       </c>
       <c r="M6" t="n">
-        <v>449592.5776708173</v>
+        <v>449557.8397453815</v>
       </c>
       <c r="N6" t="n">
-        <v>534647.6056063289</v>
+        <v>534612.8676808934</v>
       </c>
       <c r="O6" t="n">
-        <v>534647.6056063292</v>
+        <v>534612.8676808935</v>
       </c>
       <c r="P6" t="n">
-        <v>534647.6056063292</v>
+        <v>534612.8676808933</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,40 +26787,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>203.3002158843212</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>281.7336173299011</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>262.5773610745051</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>33.31413681975695</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>277.2566436803248</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>256.6980706244461</v>
       </c>
     </row>
     <row r="6">
@@ -27789,7 +27789,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>10.12388134767377</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>69.12041821276446</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>17.07188943047043</v>
       </c>
       <c r="U8" t="n">
-        <v>222.9820239906719</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28090,22 +28090,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.663871798961015e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.240552984763655e-14</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H11" t="n">
-        <v>7.240552984763655e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>9.776680594089042e-12</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29524,10 +29524,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319862</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31862,13 +31862,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>567.7870775946151</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622656</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558004</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669205</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33980,31 +33980,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>364.3208035245835</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>232.35237855373</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,25 +35483,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875417</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066348</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396408</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113564</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>425.1908331501707</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402472</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.165419911356</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>224.339029438562</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113564</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
